--- a/data/trans_dic/P10_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P10_1_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,4</t>
+          <t>9,37; 13,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,76</t>
+          <t>11,23; 15,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,45</t>
+          <t>7,33; 11,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 14,59</t>
+          <t>9,78; 14,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,67</t>
+          <t>11,91; 15,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,88; 26,65</t>
+          <t>21,71; 26,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,06; 25,71</t>
+          <t>20,29; 25,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,57; 27,03</t>
+          <t>21,68; 27,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,21; 13,86</t>
+          <t>11,2; 13,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,88; 21,28</t>
+          <t>17,8; 21,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,0; 18,86</t>
+          <t>15,07; 18,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,51; 21,58</t>
+          <t>17,55; 21,49</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,58</t>
+          <t>2,74; 4,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,71</t>
+          <t>3,7; 5,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +879,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,65</t>
+          <t>4,42; 6,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,34</t>
+          <t>5,73; 8,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 11,42</t>
+          <t>8,38; 11,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 9,91</t>
+          <t>7,33; 10,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 9,59</t>
+          <t>7,09; 9,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,15</t>
+          <t>4,48; 6,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 8,02</t>
+          <t>6,19; 7,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,11</t>
+          <t>6,45; 8,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 7,81</t>
+          <t>6,1; 7,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,04</t>
+          <t>2,61; 6,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,45</t>
+          <t>2,88; 7,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,91</t>
+          <t>1,61; 4,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,9</t>
+          <t>2,78; 6,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,97</t>
+          <t>3,89; 8,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,81</t>
+          <t>3,27; 7,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,33</t>
+          <t>4,26; 8,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 9,43</t>
+          <t>5,46; 9,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,54</t>
+          <t>3,6; 6,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,62</t>
+          <t>3,41; 6,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,89</t>
+          <t>3,42; 6,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,14</t>
+          <t>4,7; 7,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 6,93</t>
+          <t>5,29; 6,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 7,95</t>
+          <t>6,22; 8,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 7,02</t>
+          <t>5,34; 6,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 7,15</t>
+          <t>5,42; 7,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,46</t>
+          <t>8,56; 10,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,45; 15,97</t>
+          <t>13,42; 15,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 13,48</t>
+          <t>11,06; 13,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,35; 12,7</t>
+          <t>10,46; 12,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 8,48</t>
+          <t>7,09; 8,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 11,69</t>
+          <t>10,2; 11,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,55; 9,92</t>
+          <t>8,54; 9,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 9,82</t>
+          <t>8,38; 9,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P10_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P10_1_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,37; 13,38</t>
+          <t>9,37; 13,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,23; 15,71</t>
+          <t>10,99; 15,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 11,54</t>
+          <t>7,27; 11,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 15,56</t>
+          <t>11,95; 15,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,71; 26,43</t>
+          <t>21,95; 26,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,29; 25,88</t>
+          <t>20,03; 25,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,2; 13,99</t>
+          <t>11,37; 13,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 21,08</t>
+          <t>17,8; 21,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,07; 18,83</t>
+          <t>15,06; 18,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,45</t>
+          <t>2,82; 4,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 5,65</t>
+          <t>3,65; 5,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 6,91</t>
+          <t>4,75; 6,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,38; 11,28</t>
+          <t>8,55; 11,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,33; 10,03</t>
+          <t>7,43; 9,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,17</t>
+          <t>4,48; 6,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 7,93</t>
+          <t>6,31; 8,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 8,04</t>
+          <t>6,36; 8,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,41</t>
+          <t>2,59; 6,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,8</t>
+          <t>2,71; 7,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,8</t>
+          <t>1,73; 5,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 8,37</t>
+          <t>3,9; 8,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,54</t>
+          <t>3,21; 7,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,55</t>
+          <t>4,54; 8,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,5</t>
+          <t>3,63; 6,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,53</t>
+          <t>3,58; 6,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,02</t>
+          <t>3,4; 6,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 6,93</t>
+          <t>5,26; 6,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 8,04</t>
+          <t>6,18; 8,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 6,97</t>
+          <t>5,21; 6,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 10,53</t>
+          <t>8,46; 10,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,42; 15,83</t>
+          <t>13,44; 15,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,06; 13,43</t>
+          <t>11,08; 13,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 8,42</t>
+          <t>7,18; 8,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,2; 11,72</t>
+          <t>10,18; 11,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,54; 9,99</t>
+          <t>8,51; 10,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
